--- a/EDA_Process/C_Morlet_SVM/results/SVM_MKL_Half_and_Half.xlsx
+++ b/EDA_Process/C_Morlet_SVM/results/SVM_MKL_Half_and_Half.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LabWork\ThesisProject\Music_Autism_Robot\EDA_Process\C_Morlet_SVM\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8E1CBFF-54A9-41B4-ABA9-544018042776}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC6EA26E-DAE0-49B1-9CD1-2EC85D1AB64F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16500" yWindow="3433" windowWidth="9100" windowHeight="9467" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="C=0.1" sheetId="1" r:id="rId1"/>
@@ -545,19 +545,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.29296875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="20.703125" customWidth="1"/>
-    <col min="3" max="3" width="20.87890625" customWidth="1"/>
-    <col min="4" max="4" width="19.703125" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" customWidth="1"/>
+    <col min="4" max="4" width="19.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>21</v>
       </c>
@@ -571,13 +571,13 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -591,7 +591,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -605,7 +605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -619,7 +619,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -633,7 +633,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -647,7 +647,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
@@ -661,7 +661,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -675,7 +675,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
@@ -689,7 +689,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>4</v>
       </c>
@@ -703,7 +703,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
@@ -717,22 +717,22 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D13" s="1"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>23</v>
       </c>
@@ -746,7 +746,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>24</v>
       </c>
@@ -760,7 +760,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>2</v>
       </c>
@@ -774,7 +774,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>25</v>
       </c>
@@ -788,7 +788,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>26</v>
       </c>
@@ -802,7 +802,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>6</v>
       </c>
@@ -816,7 +816,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>27</v>
       </c>
@@ -830,7 +830,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>28</v>
       </c>
@@ -844,16 +844,16 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D24" s="1"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D25" s="1"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>41</v>
       </c>
@@ -867,7 +867,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>36</v>
       </c>
@@ -881,7 +881,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>2</v>
       </c>
@@ -895,7 +895,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>42</v>
       </c>
@@ -909,7 +909,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>43</v>
       </c>
@@ -923,7 +923,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>6</v>
       </c>
@@ -937,7 +937,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>32</v>
       </c>
@@ -951,7 +951,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>38</v>
       </c>
@@ -965,16 +965,16 @@
         <v>38</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D34" s="1"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D35" s="1"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>45</v>
       </c>
@@ -988,7 +988,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>24</v>
       </c>
@@ -1002,7 +1002,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>2</v>
       </c>
@@ -1016,7 +1016,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>33</v>
       </c>
@@ -1030,7 +1030,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>38</v>
       </c>
@@ -1044,7 +1044,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>6</v>
       </c>
@@ -1058,7 +1058,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>33</v>
       </c>
@@ -1072,7 +1072,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>30</v>
       </c>
